--- a/941_data_template.xlsx
+++ b/941_data_template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t xml:space="preserve">Quarter</t>
   </si>
@@ -95,6 +95,33 @@
   </si>
   <si>
     <t xml:space="preserve">Mr B, Officer, 222-333-4444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88-3333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HJK INC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HJK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22th St,  Zcity, NY, 77777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr Z, Officer, 777-222-8888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{15:2000.88, 18:200}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{20:900, 30:500.45}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{7:100.23, 9:800}</t>
   </si>
 </sst>
 </file>
@@ -208,11 +235,11 @@
   </sheetPr>
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H19" activeCellId="0" sqref="H19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L4" activeCellId="0" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="15.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.99"/>
@@ -223,7 +250,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="6.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="17.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="14.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="16.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="17.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="13.18"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -302,16 +331,16 @@
         <v>780</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>540</v>
+        <v>540.345</v>
       </c>
       <c r="L2" s="2" t="n">
         <v>655</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>233</v>
+        <v>233.367</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>0</v>
+        <v>342.643</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -359,13 +388,48 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
+      <c r="A4" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>50342</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>1532</v>
+      </c>
+      <c r="K4" s="2" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2"/>
